--- a/tesztesetek.xlsx
+++ b/tesztesetek.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\iskola\2 félév\önlab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shared\vargakristof\git\onlab_2_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8152CB-190E-4E50-B106-2121417F1B25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
   <si>
     <t>Feladat: LR ratio teszteket kell végezni a lenti tesztesetek szerint. Az adatbázisban ketté kell szedni a beszélőket véletlenszerűen: egyik halmazban 60 beszélő legyen, a másikban 20. 60-nal készüljön mindig a UBM, 20-al pedig az enroll-test. A felosztás urán ellenőrizni kell, hogy a nemek aránya egyenlő-e. Ha nem akkor újra kell osztani a beszélőket.
 Minden esetben ki kell számolni az LR pontszámok az enrollment és a teszt mintákra. Ki kell számolni a cllr értéket. Erre van minta a Geoffrey matlab kódban, ott is megcsinálják: run_MVKD2_likelihood_ratio_A.m
@@ -76,12 +75,15 @@
   </si>
   <si>
     <t>teljes UBM</t>
+  </si>
+  <si>
+    <t>1-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
@@ -99,7 +101,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +111,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,35 +148,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -195,13 +224,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57148</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -216,8 +245,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11525250" y="847723"/>
-          <a:ext cx="6457950" cy="5848351"/>
+          <a:off x="11525250" y="847724"/>
+          <a:ext cx="6457950" cy="4610102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -542,38 +571,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -590,7 +619,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -607,12 +636,12 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10"/>
+    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -626,12 +655,12 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8" t="s">
+    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1"/>
@@ -647,14 +676,14 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5">
         <v>44199</v>
       </c>
       <c r="D6" s="1"/>
@@ -670,14 +699,14 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
         <v>44199</v>
       </c>
       <c r="D7" s="1"/>
@@ -693,14 +722,14 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
         <v>44199</v>
       </c>
       <c r="D8" s="1"/>
@@ -716,7 +745,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -733,16 +762,16 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -752,541 +781,719 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4" t="s">
+      <c r="E34" s="14"/>
+      <c r="F34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4" t="s">
+      <c r="G34" s="14"/>
+      <c r="H34" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="4" t="s">
+      <c r="I34" s="14"/>
+      <c r="J34" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="4" t="s">
+      <c r="K34" s="14"/>
+      <c r="L34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>2</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
-        <v>3</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1</v>
-      </c>
-      <c r="M20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B36" s="15">
+        <v>1</v>
+      </c>
+      <c r="C36" s="15">
+        <v>1</v>
+      </c>
+      <c r="D36" s="15">
+        <v>1</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1</v>
+      </c>
+      <c r="F36" s="15">
+        <v>1</v>
+      </c>
+      <c r="G36" s="15">
+        <v>2</v>
+      </c>
+      <c r="H36" s="15">
+        <v>1</v>
+      </c>
+      <c r="I36" s="15">
+        <v>2</v>
+      </c>
+      <c r="J36" s="15">
+        <v>1</v>
+      </c>
+      <c r="K36" s="15">
+        <v>3</v>
+      </c>
+      <c r="L36" s="15">
+        <v>1</v>
+      </c>
+      <c r="M36" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>2</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2">
-        <v>3</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="B37" s="15">
+        <v>1</v>
+      </c>
+      <c r="C37" s="15">
+        <v>1</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1</v>
+      </c>
+      <c r="E37" s="15">
+        <v>1</v>
+      </c>
+      <c r="F37" s="15">
+        <v>1</v>
+      </c>
+      <c r="G37" s="15">
+        <v>2</v>
+      </c>
+      <c r="H37" s="15">
+        <v>1</v>
+      </c>
+      <c r="I37" s="15">
+        <v>2</v>
+      </c>
+      <c r="J37" s="15">
+        <v>1</v>
+      </c>
+      <c r="K37" s="15">
+        <v>3</v>
+      </c>
+      <c r="L37" s="15">
+        <v>1</v>
+      </c>
+      <c r="M37" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2</v>
-      </c>
-      <c r="I22" s="2">
-        <v>3</v>
-      </c>
-      <c r="J22" s="2">
-        <v>2</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
-        <v>2</v>
-      </c>
-      <c r="M22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="B38" s="15">
+        <v>2</v>
+      </c>
+      <c r="C38" s="15">
+        <v>2</v>
+      </c>
+      <c r="D38" s="15">
+        <v>2</v>
+      </c>
+      <c r="E38" s="15">
+        <v>3</v>
+      </c>
+      <c r="F38" s="15">
+        <v>2</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1</v>
+      </c>
+      <c r="H38" s="15">
+        <v>2</v>
+      </c>
+      <c r="I38" s="15">
+        <v>3</v>
+      </c>
+      <c r="J38" s="15">
+        <v>2</v>
+      </c>
+      <c r="K38" s="15">
+        <v>1</v>
+      </c>
+      <c r="L38" s="15">
+        <v>2</v>
+      </c>
+      <c r="M38" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4" t="s">
+      <c r="C41" s="14"/>
+      <c r="D41" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4" t="s">
+      <c r="E41" s="14"/>
+      <c r="F41" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="4" t="s">
+      <c r="G41" s="14"/>
+      <c r="H41" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="4" t="s">
+      <c r="I41" s="14"/>
+      <c r="J41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="4" t="s">
+      <c r="K41" s="14"/>
+      <c r="L41" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="12"/>
+      <c r="B42" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B43" s="15">
+        <v>1</v>
+      </c>
+      <c r="C43" s="16">
         <v>44199</v>
       </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D43" s="15">
+        <v>1</v>
+      </c>
+      <c r="E43" s="16">
         <v>44199</v>
       </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F43" s="15">
+        <v>1</v>
+      </c>
+      <c r="G43" s="16">
         <v>44199</v>
       </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="H43" s="15">
+        <v>1</v>
+      </c>
+      <c r="I43" s="16">
         <v>44199</v>
       </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="J43" s="15">
+        <v>1</v>
+      </c>
+      <c r="K43" s="16">
         <v>44199</v>
       </c>
-      <c r="L27" s="2">
-        <v>1</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="L43" s="15">
+        <v>1</v>
+      </c>
+      <c r="M43" s="16">
         <v>44199</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>2</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2">
-        <v>2</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2">
-        <v>3</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1</v>
-      </c>
-      <c r="M28" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="B44" s="15">
+        <v>1</v>
+      </c>
+      <c r="C44" s="15">
+        <v>1</v>
+      </c>
+      <c r="D44" s="15">
+        <v>1</v>
+      </c>
+      <c r="E44" s="15">
+        <v>1</v>
+      </c>
+      <c r="F44" s="15">
+        <v>1</v>
+      </c>
+      <c r="G44" s="15">
+        <v>2</v>
+      </c>
+      <c r="H44" s="15">
+        <v>1</v>
+      </c>
+      <c r="I44" s="15">
+        <v>2</v>
+      </c>
+      <c r="J44" s="15">
+        <v>1</v>
+      </c>
+      <c r="K44" s="15">
+        <v>3</v>
+      </c>
+      <c r="L44" s="15">
+        <v>1</v>
+      </c>
+      <c r="M44" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="2">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2">
-        <v>3</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2">
-        <v>2</v>
-      </c>
-      <c r="I29" s="2">
-        <v>3</v>
-      </c>
-      <c r="J29" s="2">
-        <v>2</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1</v>
-      </c>
-      <c r="L29" s="2">
-        <v>2</v>
-      </c>
-      <c r="M29" s="2">
-        <v>2</v>
-      </c>
+      <c r="B45" s="15">
+        <v>2</v>
+      </c>
+      <c r="C45" s="15">
+        <v>2</v>
+      </c>
+      <c r="D45" s="15">
+        <v>2</v>
+      </c>
+      <c r="E45" s="15">
+        <v>3</v>
+      </c>
+      <c r="F45" s="15">
+        <v>2</v>
+      </c>
+      <c r="G45" s="15">
+        <v>1</v>
+      </c>
+      <c r="H45" s="15">
+        <v>2</v>
+      </c>
+      <c r="I45" s="15">
+        <v>3</v>
+      </c>
+      <c r="J45" s="15">
+        <v>2</v>
+      </c>
+      <c r="K45" s="15">
+        <v>1</v>
+      </c>
+      <c r="L45" s="15">
+        <v>2</v>
+      </c>
+      <c r="M45" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="A40:M40"/>
+    <mergeCell ref="L41:M41"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="F34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
